--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1415109.164557941</v>
+        <v>1399317.536876792</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584662</v>
+        <v>460545.8926584668</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075586</v>
+        <v>8768687.110075587</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8275299.043144359</v>
+        <v>8275299.04314436</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -786,10 +786,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>54.80288507895742</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.9634147202720031</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>73.13921112007273</v>
       </c>
       <c r="W6" t="n">
-        <v>236.634544917884</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1148,10 +1148,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.52452633447239</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>64.37964966482799</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>352.024878336558</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>385.6635297936385</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1455,16 +1455,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>84.48745916175773</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.03858805571426</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>90.88144631532461</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>10.54215419659328</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.347200282567</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>226.567451325159</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>188.3396827868508</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>36.00199333851258</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1737,10 +1737,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>120.2062413692235</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620182</v>
@@ -1813,10 +1813,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>10.54215419659328</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>92.47840864636518</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>226.567451325159</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1859,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>278.3950686964969</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>24.6481577642662</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>167.028865499858</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -1989,7 +1989,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.25569009045748</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>135.6080685705884</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>66.97649427705879</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>12.19654989000774</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>24.6481577642662</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2217,7 +2217,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
-        <v>102.5632849648786</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>132.9147347601045</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>43.03218749909099</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,10 +2333,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>80.83667140965603</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>380.6457520409138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>187.2448294249379</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>48.37669028361987</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>54.44663919424248</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>110.9705324835872</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,22 +2558,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>40.19140857329735</v>
+        <v>161.2895861564922</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>111.3550458383073</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>120.1263698699157</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>198.5128277890446</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.2594070052941</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>115.0135424380014</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2886,7 +2886,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>120.9673892710041</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.81789375578462</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>30.15530139277711</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>126.8292536046807</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>93.90727742760713</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3117,16 +3117,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>91.68674581998047</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3171,10 +3171,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>108.2159916811114</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.60419956430018</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>156.8482076906877</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>166.5810187360925</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.25144273425367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.6941370086349</v>
@@ -3399,13 +3399,13 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>182.9732335581766</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>33.68520485714162</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,25 +3466,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>92.47840864636518</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.60419956430097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>153.9026557627436</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>161.2244916210073</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>15.56199340180357</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>112.3795325203076</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.9705324835872</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>115.1165353722836</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>241.397237423877</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>45.02264051932105</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3828,13 +3828,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571426</v>
@@ -3867,13 +3867,13 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
-        <v>39.20016491933298</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>144.583018407241</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>156.8482076906877</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.9289512464141</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>404.5778372527351</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>66.97649427705907</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>105.9637990594094</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.92880121528968</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8986597023843</v>
+        <v>197.0610769803669</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.93334314034942</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R46" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>75.35307017491688</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4364,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W2" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="X2" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>807.5311764888174</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>599.6796762832846</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="Y3" t="n">
-        <v>391.9193775183306</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="4">
@@ -4519,10 +4519,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4598,19 +4598,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>259.0600686093459</v>
+        <v>661.9555462166488</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.5067695725487</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>418.5067695725487</v>
       </c>
     </row>
     <row r="7">
@@ -4747,19 +4747,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
         <v>41.77557929797318</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>761.6974622895962</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4847,7 +4847,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>310.5702840197694</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="C9" t="n">
-        <v>136.1172547386423</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D9" t="n">
-        <v>136.1172547386423</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>136.1172547386423</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>136.1172547386423</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1172547386423</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>899.0272063542443</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="V9" t="n">
-        <v>761.8705608694022</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="W9" t="n">
-        <v>518.4217842253022</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="X9" t="n">
-        <v>310.5702840197694</v>
+        <v>725.6098618049132</v>
       </c>
       <c r="Y9" t="n">
-        <v>310.5702840197694</v>
+        <v>725.6098618049132</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4993,19 +4993,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.181164129221</v>
+        <v>1989.169136893773</v>
       </c>
       <c r="C11" t="n">
-        <v>2087.181164129221</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D11" t="n">
-        <v>1728.915465522471</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E11" t="n">
-        <v>1343.127212924226</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F11" t="n">
-        <v>932.1413081346188</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275673</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
         <v>1190.549107376118</v>
@@ -5054,7 +5054,7 @@
         <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P11" t="n">
         <v>2224.886645733486</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>691.56687933201</v>
+        <v>682.5765037404599</v>
       </c>
       <c r="C12" t="n">
-        <v>517.113850050883</v>
+        <v>508.1234744593329</v>
       </c>
       <c r="D12" t="n">
-        <v>368.1794403896317</v>
+        <v>359.1890647980816</v>
       </c>
       <c r="E12" t="n">
-        <v>368.1794403896317</v>
+        <v>199.9516097926261</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5121,19 +5121,19 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
-        <v>273.1268607498445</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583284</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213676</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
         <v>2344.749822082216</v>
@@ -5142,28 +5142,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2192.506642574321</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1992.963944628352</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1764.783480282509</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1529.631372050766</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W12" t="n">
-        <v>1275.394015322565</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>1067.542515117032</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>859.782216352078</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5224,25 +5224,25 @@
         <v>412.4263787765004</v>
       </c>
       <c r="S13" t="n">
-        <v>401.7777381738809</v>
+        <v>195.7305522826211</v>
       </c>
       <c r="T13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="U13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="V13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1975.787305141804</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.521606535054</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>1231.733353936809</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>820.7474491472019</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>402.4756816300867</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>850.791840760528</v>
       </c>
       <c r="C15" t="n">
         <v>814.4261909236466</v>
@@ -5355,25 +5355,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
-        <v>273.1268607498445</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L15" t="n">
-        <v>642.6780758583284</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M15" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5385,22 +5385,22 @@
         <v>2183.516266982771</v>
       </c>
       <c r="T15" t="n">
-        <v>2183.516266982771</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>850.791840760528</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
@@ -5461,25 +5461,25 @@
         <v>412.4263787765004</v>
       </c>
       <c r="S16" t="n">
-        <v>401.7777381738809</v>
+        <v>195.7305522826211</v>
       </c>
       <c r="T16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="C17" t="n">
-        <v>2115.893810642661</v>
+        <v>1901.413760050833</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>1543.148061444083</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>1157.359808845839</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>746.3739040562311</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>328.102136539116</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
         <v>392.9020949275675</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.1634746939509</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C18" t="n">
-        <v>746.7104454128239</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D18" t="n">
-        <v>597.7760357515726</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E18" t="n">
-        <v>438.5385807461172</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F18" t="n">
-        <v>292.0040227730022</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5595,49 +5595,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.668423207632</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832901</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>2014.800241225339</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1786.619776879496</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1551.467668647753</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W18" t="n">
-        <v>1297.230311919552</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1089.378811714019</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.378811714019</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>379.7790225382926</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="C19" t="n">
-        <v>379.7790225382926</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="D19" t="n">
-        <v>379.7790225382926</v>
+        <v>457.6519340239741</v>
       </c>
       <c r="E19" t="n">
-        <v>379.7790225382926</v>
+        <v>457.6519340239741</v>
       </c>
       <c r="F19" t="n">
-        <v>379.7790225382926</v>
+        <v>411.9391157507848</v>
       </c>
       <c r="G19" t="n">
-        <v>379.7790225382926</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H19" t="n">
         <v>242.8011754972942</v>
@@ -5713,10 +5713,10 @@
         <v>607.7685734363099</v>
       </c>
       <c r="X19" t="n">
-        <v>379.7790225382926</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Y19" t="n">
-        <v>379.7790225382926</v>
+        <v>607.7685734363099</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>788.2295105572106</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C20" t="n">
-        <v>788.2295105572106</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D20" t="n">
-        <v>788.2295105572106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E20" t="n">
-        <v>788.2295105572106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5756,16 +5756,16 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244547</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P20" t="n">
         <v>2224.886645733486</v>
@@ -5774,28 +5774,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="T20" t="n">
-        <v>2124.767062713794</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="U20" t="n">
-        <v>1870.980640598661</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="V20" t="n">
-        <v>1539.917753255091</v>
+        <v>2277.096797559934</v>
       </c>
       <c r="W20" t="n">
-        <v>1187.149097984977</v>
+        <v>1924.32814228982</v>
       </c>
       <c r="X20" t="n">
-        <v>1174.829350621332</v>
+        <v>1550.86238402874</v>
       </c>
       <c r="Y20" t="n">
-        <v>1174.829350621332</v>
+        <v>1160.723052052928</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>814.129334229901</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C21" t="n">
-        <v>639.676304948774</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D21" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E21" t="n">
-        <v>331.5044402820673</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F21" t="n">
-        <v>184.9698823089523</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076318</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M21" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1652.193826948657</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W21" t="n">
-        <v>1397.956470220456</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1190.104970014923</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y21" t="n">
-        <v>982.344671249969</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C22" t="n">
         <v>46.89499644164432</v>
@@ -5929,31 +5929,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363101</v>
+        <v>432.5270058634305</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363101</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363101</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363101</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="V22" t="n">
-        <v>564.3017173766223</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="W22" t="n">
-        <v>274.8845473396617</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="X22" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695512</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>876.152668748367</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="C23" t="n">
-        <v>876.152668748367</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="D23" t="n">
-        <v>876.152668748367</v>
+        <v>1508.932706154049</v>
       </c>
       <c r="E23" t="n">
-        <v>876.152668748367</v>
+        <v>1123.144453555805</v>
       </c>
       <c r="F23" t="n">
-        <v>465.1667639587595</v>
+        <v>712.1585487661971</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164432</v>
+        <v>293.8867812490819</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -5993,7 +5993,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
@@ -6020,19 +6020,19 @@
         <v>1867.198404760799</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V23" t="n">
-        <v>1613.411982645667</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="W23" t="n">
-        <v>1260.643327375553</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="X23" t="n">
-        <v>1260.643327375553</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="Y23" t="n">
-        <v>876.152668748367</v>
+        <v>1867.198404760799</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6090,28 +6090,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U24" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V24" t="n">
-        <v>1460.197257673871</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W24" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.95990094567</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="25">
@@ -6172,22 +6172,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T25" t="n">
-        <v>336.0761416957212</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U25" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V25" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W25" t="n">
-        <v>46.89499644164432</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164432</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y25" t="n">
         <v>46.89499644164432</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>621.7934771426667</v>
+        <v>1348.027890673861</v>
       </c>
       <c r="C26" t="n">
-        <v>252.830960202255</v>
+        <v>979.065373733449</v>
       </c>
       <c r="D26" t="n">
-        <v>252.830960202255</v>
+        <v>620.7996751266985</v>
       </c>
       <c r="E26" t="n">
-        <v>252.830960202255</v>
+        <v>620.7996751266985</v>
       </c>
       <c r="F26" t="n">
-        <v>252.830960202255</v>
+        <v>209.8137703370909</v>
       </c>
       <c r="G26" t="n">
-        <v>252.830960202255</v>
+        <v>209.8137703370909</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6263,13 +6263,13 @@
         <v>2124.767062713794</v>
       </c>
       <c r="W26" t="n">
-        <v>1771.99840744368</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="X26" t="n">
-        <v>1398.5326491826</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="Y26" t="n">
-        <v>1008.393317206788</v>
+        <v>1734.627730737982</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498445</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583284</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.3514033993495</v>
+        <v>197.01163585398</v>
       </c>
       <c r="C28" t="n">
-        <v>318.3514033993495</v>
+        <v>197.01163585398</v>
       </c>
       <c r="D28" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>318.3514033993495</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
         <v>46.89499644164432</v>
@@ -6418,16 +6418,16 @@
         <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363101</v>
+        <v>486.4288058909407</v>
       </c>
       <c r="W28" t="n">
-        <v>318.3514033993495</v>
+        <v>197.01163585398</v>
       </c>
       <c r="X28" t="n">
-        <v>318.3514033993495</v>
+        <v>197.01163585398</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.3514033993495</v>
+        <v>197.01163585398</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1174.017763155455</v>
+        <v>1771.41537724438</v>
       </c>
       <c r="C29" t="n">
-        <v>1174.017763155455</v>
+        <v>1402.452860303968</v>
       </c>
       <c r="D29" t="n">
-        <v>1174.017763155455</v>
+        <v>1044.187161697218</v>
       </c>
       <c r="E29" t="n">
-        <v>788.2295105572106</v>
+        <v>658.3989090989737</v>
       </c>
       <c r="F29" t="n">
-        <v>377.243605767603</v>
+        <v>247.4130043093662</v>
       </c>
       <c r="G29" t="n">
-        <v>377.243605767603</v>
+        <v>247.4130043093662</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6467,16 +6467,16 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O29" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P29" t="n">
         <v>2224.886645733486</v>
@@ -6488,25 +6488,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T29" t="n">
-        <v>2124.767062713794</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U29" t="n">
-        <v>1870.980640598661</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V29" t="n">
-        <v>1870.980640598661</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="W29" t="n">
-        <v>1870.980640598661</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="X29" t="n">
-        <v>1870.980640598661</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="Y29" t="n">
-        <v>1560.617603219576</v>
+        <v>1771.41537724438</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551149</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739879</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D30" t="n">
-        <v>331.5044402820673</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E30" t="n">
-        <v>331.5044402820673</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F30" t="n">
-        <v>184.9698823089523</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H30" t="n">
         <v>46.89499644164432</v>
@@ -6543,7 +6543,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498445</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
         <v>642.6780758583284</v>
@@ -6564,28 +6564,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U30" t="n">
-        <v>1695.349365905614</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V30" t="n">
-        <v>1460.197257673871</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W30" t="n">
-        <v>1205.95990094567</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X30" t="n">
-        <v>998.1084007401369</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.348101975183</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2102.929067427792</v>
+        <v>386.97599429278</v>
       </c>
       <c r="C31" t="n">
-        <v>1933.992884499885</v>
+        <v>386.97599429278</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.876245087549</v>
+        <v>386.97599429278</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.876245087549</v>
+        <v>386.97599429278</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.876245087549</v>
+        <v>356.5160938960354</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.876245087549</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.876245087549</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y31" t="n">
-        <v>2123.957242938686</v>
+        <v>386.97599429278</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1348.027890673861</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C32" t="n">
-        <v>979.065373733449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D32" t="n">
-        <v>850.9550165570038</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F32" t="n">
-        <v>465.1667639587595</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
         <v>46.89499644164432</v>
@@ -6698,13 +6698,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M32" t="n">
         <v>1190.549107376118</v>
@@ -6728,22 +6728,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T32" t="n">
-        <v>2124.767062713794</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U32" t="n">
-        <v>2124.767062713794</v>
+        <v>2249.893986296754</v>
       </c>
       <c r="V32" t="n">
-        <v>2124.767062713794</v>
+        <v>1918.831098953184</v>
       </c>
       <c r="W32" t="n">
-        <v>2124.767062713794</v>
+        <v>1566.062443683069</v>
       </c>
       <c r="X32" t="n">
-        <v>2124.767062713794</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1734.627730737982</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551149</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739879</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127367</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072812</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498445</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583284</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213676</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673871</v>
+        <v>1520.640996459216</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401369</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U34" t="n">
-        <v>590.9966546844918</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V34" t="n">
-        <v>336.3121664786049</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>2186.317289061319</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>1965.524709917789</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>457.8809012312519</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="C35" t="n">
-        <v>457.8809012312519</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="D35" t="n">
-        <v>457.8809012312519</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E35" t="n">
         <v>457.8809012312519</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.198404760799</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>1956.503407424812</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>1956.503407424812</v>
       </c>
       <c r="W35" t="n">
-        <v>929.5804400319819</v>
+        <v>1603.734752154698</v>
       </c>
       <c r="X35" t="n">
-        <v>556.1146817709021</v>
+        <v>1230.268993893618</v>
       </c>
       <c r="Y35" t="n">
-        <v>457.8809012312519</v>
+        <v>1230.268993893618</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>842.3446622316584</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="C36" t="n">
-        <v>667.8916329505314</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="D36" t="n">
-        <v>518.9572232892801</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>359.7197682838247</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
         <v>359.7197682838247</v>
@@ -7014,25 +7014,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>273.1268607498445</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>642.6780758583284</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213676</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
@@ -7047,19 +7047,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1738.708382212894</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673871</v>
+        <v>1503.556273981152</v>
       </c>
       <c r="W36" t="n">
-        <v>1426.171798222213</v>
+        <v>1249.31891725295</v>
       </c>
       <c r="X36" t="n">
-        <v>1218.32029801668</v>
+        <v>1041.467417047417</v>
       </c>
       <c r="Y36" t="n">
-        <v>1010.559999251726</v>
+        <v>833.7071182824634</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="C37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.7843137019199</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R37" t="n">
-        <v>412.4263787765004</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S37" t="n">
-        <v>195.7305522826211</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T37" t="n">
-        <v>102.3180182963936</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U37" t="n">
-        <v>102.3180182963936</v>
+        <v>2327.977903330397</v>
       </c>
       <c r="V37" t="n">
-        <v>102.3180182963936</v>
+        <v>2073.29341512451</v>
       </c>
       <c r="W37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="X37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.3180182963936</v>
+        <v>1783.876245087549</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>929.5804400319819</v>
+        <v>936.9762338282078</v>
       </c>
       <c r="C38" t="n">
-        <v>560.6179230915702</v>
+        <v>568.0137168877961</v>
       </c>
       <c r="D38" t="n">
-        <v>202.3522244848197</v>
+        <v>209.7480182810456</v>
       </c>
       <c r="E38" t="n">
-        <v>202.3522244848197</v>
+        <v>209.7480182810456</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>209.7480182810456</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7172,10 +7172,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275673</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
         <v>762.5916738244547</v>
@@ -7184,7 +7184,7 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N38" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O38" t="n">
         <v>1962.442083972113</v>
@@ -7202,22 +7202,22 @@
         <v>2087.181164129221</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760799</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="W38" t="n">
-        <v>929.5804400319819</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="X38" t="n">
-        <v>929.5804400319819</v>
+        <v>1713.715405868141</v>
       </c>
       <c r="Y38" t="n">
-        <v>929.5804400319819</v>
+        <v>1323.57607389233</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>790.348101975183</v>
+        <v>743.7701938734157</v>
       </c>
       <c r="C39" t="n">
-        <v>615.895072694056</v>
+        <v>569.3171645922887</v>
       </c>
       <c r="D39" t="n">
-        <v>466.9606630328047</v>
+        <v>420.3827549310374</v>
       </c>
       <c r="E39" t="n">
-        <v>307.7232080273492</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F39" t="n">
-        <v>307.7232080273492</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G39" t="n">
-        <v>169.6483221600413</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H39" t="n">
-        <v>62.61418169599136</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,22 +7254,22 @@
         <v>106.8945330050502</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007834</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156131</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7287,16 +7287,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673871</v>
+        <v>1581.834686592172</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1327.59732986397</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401369</v>
+        <v>1119.745829658438</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.348101975183</v>
+        <v>911.9855308934837</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.9864433947627</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702974</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200977</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362074</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228447</v>
+        <v>2181.73670676875</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496714</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363101</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363101</v>
+        <v>2128.053995588336</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363101</v>
+        <v>1900.155573746422</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363101</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363101</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363101</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="X40" t="n">
-        <v>379.7790225382928</v>
+        <v>1783.876245087549</v>
       </c>
       <c r="Y40" t="n">
-        <v>158.9864433947627</v>
+        <v>1783.876245087549</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>643.49924506921</v>
+        <v>290.7305897990959</v>
       </c>
       <c r="C41" t="n">
-        <v>643.49924506921</v>
+        <v>290.7305897990959</v>
       </c>
       <c r="D41" t="n">
-        <v>643.49924506921</v>
+        <v>290.7305897990959</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7109924709658</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7109924709658</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7109924709658</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7448,13 +7448,13 @@
         <v>1793.704175370223</v>
       </c>
       <c r="W41" t="n">
-        <v>1793.704175370223</v>
+        <v>1440.935520100109</v>
       </c>
       <c r="X41" t="n">
-        <v>1420.238417109143</v>
+        <v>1067.469761839029</v>
       </c>
       <c r="Y41" t="n">
-        <v>1030.099085133332</v>
+        <v>677.3304298632177</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>743.7701938734157</v>
+        <v>704.2697763643505</v>
       </c>
       <c r="C42" t="n">
-        <v>569.3171645922887</v>
+        <v>529.8167470832235</v>
       </c>
       <c r="D42" t="n">
-        <v>420.3827549310374</v>
+        <v>380.8823374219722</v>
       </c>
       <c r="E42" t="n">
-        <v>261.1452999255819</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7491,13 +7491,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076318</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161157</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M42" t="n">
-        <v>974.44769738329</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N42" t="n">
         <v>1486.172378671464</v>
@@ -7515,25 +7515,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2244.709957115726</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2045.167259169757</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1816.986794823915</v>
+        <v>1777.48637731485</v>
       </c>
       <c r="V42" t="n">
-        <v>1581.834686592172</v>
+        <v>1542.334269083107</v>
       </c>
       <c r="W42" t="n">
-        <v>1327.59732986397</v>
+        <v>1288.096912354905</v>
       </c>
       <c r="X42" t="n">
-        <v>1119.745829658438</v>
+        <v>1080.245412149372</v>
       </c>
       <c r="Y42" t="n">
-        <v>911.9855308934837</v>
+        <v>872.4851133844186</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1942.308778108446</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.876245087549</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.876245087549</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.876245087549</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.876245087549</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.876245087549</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.876245087549</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.876245087549</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="X43" t="n">
-        <v>2344.749822082216</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="Y43" t="n">
-        <v>2123.957242938686</v>
+        <v>242.8011754972942</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>841.7762365110884</v>
+        <v>1369.518436721529</v>
       </c>
       <c r="C44" t="n">
-        <v>472.8137195706767</v>
+        <v>1369.518436721529</v>
       </c>
       <c r="D44" t="n">
-        <v>114.5480209639262</v>
+        <v>1369.518436721529</v>
       </c>
       <c r="E44" t="n">
-        <v>114.5480209639262</v>
+        <v>1369.518436721529</v>
       </c>
       <c r="F44" t="n">
-        <v>114.5480209639262</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G44" t="n">
-        <v>114.5480209639262</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915533</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7670,28 +7670,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="V44" t="n">
-        <v>2344.749822082216</v>
+        <v>1756.11827678565</v>
       </c>
       <c r="W44" t="n">
-        <v>1991.981166812102</v>
+        <v>1756.11827678565</v>
       </c>
       <c r="X44" t="n">
-        <v>1618.515408551022</v>
+        <v>1756.11827678565</v>
       </c>
       <c r="Y44" t="n">
-        <v>1228.37607657521</v>
+        <v>1756.11827678565</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G45" t="n">
         <v>221.6448824165167</v>
@@ -7725,52 +7725,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1688.868827056222</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.876245087549</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.73670676875</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q46" t="n">
-        <v>2303.765562347825</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R46" t="n">
-        <v>2149.407627422406</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S46" t="n">
-        <v>2073.29341512451</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T46" t="n">
-        <v>2073.29341512451</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="U46" t="n">
-        <v>2073.29341512451</v>
+        <v>338.8858918600054</v>
       </c>
       <c r="V46" t="n">
-        <v>2073.29341512451</v>
+        <v>84.20140365411848</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.876245087549</v>
+        <v>84.20140365411848</v>
       </c>
       <c r="X46" t="n">
-        <v>1783.876245087549</v>
+        <v>84.20140365411848</v>
       </c>
       <c r="Y46" t="n">
-        <v>1783.876245087549</v>
+        <v>84.20140365411848</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970533</v>
       </c>
       <c r="Q12" t="n">
         <v>57.08896698613913</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.4978194579835</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>65.48544285212003</v>
       </c>
       <c r="K18" t="n">
-        <v>108.5094987082739</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853422</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998484</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392486</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,10 +10191,10 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488641</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K33" t="n">
-        <v>200.8922269696947</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K36" t="n">
-        <v>200.8922269696947</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356321</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>254.8897585970533</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K42" t="n">
-        <v>108.5094987082737</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392486</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>30.70896332692257</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>28.42552004830549</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23343,16 +23343,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>60.58175323162615</v>
       </c>
       <c r="G12" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>68.73977323312559</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23431,13 +23431,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>203.9867140323472</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>78.2722373409284</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23495,7 +23495,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>138.7054404458486</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>138.7054404458483</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>136.7065056498031</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23625,10 +23625,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>105.6924183331608</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>203.9867140323472</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771302</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23732,7 +23732,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>138.7054404458486</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>48.65005453620216</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006115</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -23820,16 +23820,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>120.4210546291177</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>30.51840546665159</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,19 +23893,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>100.1653579324738</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77872847923251</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>6.653315363002349</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>357.5345507884613</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24057,16 +24057,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>81.31564129514322</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>130.2373021845466</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>19.89962081606083</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
@@ -24184,13 +24184,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>209.105455824737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,10 +24209,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24221,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>246.208451823043</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24260,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.592186615139781</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>38.65383027744639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>157.3060054936845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24412,25 +24412,25 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>171.1727984292529</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>175.5524658530038</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,22 +24446,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>286.8537146594018</v>
+        <v>165.7555370762069</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>56.09151501264836</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
         <v>139.0783256288916</v>
@@ -24658,7 +24658,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>132.0112734539123</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>128.5322954436545</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24728,13 +24728,13 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.97853165075946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24762,10 +24762,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>32.43152312663737</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,7 +24774,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -24804,13 +24804,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>76.57988169550549</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.0140864261527</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>115.2657466301541</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620182</v>
@@ -24920,16 +24920,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>227.8537880160022</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
         <v>327.0451232326991</v>
@@ -24968,19 +24968,19 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>157.3412804663741</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25005,16 +25005,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340341</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25059,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>97.46670409619297</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25129,19 +25129,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>269.685134237236</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>68.86144769834942</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25199,19 +25199,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>84.66753915788868</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.9864959217999</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25233,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25287,13 +25287,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>42.92542614420768</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>218.009778303778</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,25 +25354,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>133.1410289771302</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>269.6851342372352</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>252.9733899789678</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>252.8645582209367</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25442,22 +25442,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25479,16 +25479,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>51.47659465391068</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>120.4210546291177</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>56.27628861504064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25597,13 +25597,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>171.1727984292525</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>140.5331326483848</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,10 +25643,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>282.0224827133781</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25716,13 +25716,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>81.31564129514331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>10.3986134079401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,10 +25804,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,13 +25828,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>46.59991698252639</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>2.298208488976343</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>260.06862895564</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -25922,16 +25922,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,7 +25956,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.910500182201744</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>28.83758272201743</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>142.8986370415879</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>139.1757980540236</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630038.7909398723</v>
+        <v>630038.790939872</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>630038.7909398719</v>
+        <v>630038.790939872</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>630038.7909398718</v>
+        <v>630038.790939872</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630038.7909398719</v>
+        <v>630038.7909398722</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>630038.7909398719</v>
+        <v>630038.790939872</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>630038.7909398719</v>
+        <v>630038.7909398718</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630038.790939872</v>
+        <v>630038.7909398719</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630038.7909398719</v>
+        <v>630038.7909398723</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630038.7909398722</v>
+        <v>630038.7909398719</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>304032.5147288475</v>
+        <v>304032.5147288477</v>
       </c>
       <c r="F2" t="n">
         <v>304032.5147288477</v>
@@ -26332,28 +26332,28 @@
         <v>304032.5147288477</v>
       </c>
       <c r="I2" t="n">
+        <v>304032.5147288474</v>
+      </c>
+      <c r="J2" t="n">
+        <v>304032.5147288475</v>
+      </c>
+      <c r="K2" t="n">
         <v>304032.5147288477</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>304032.5147288476</v>
+      </c>
+      <c r="M2" t="n">
         <v>304032.5147288477</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>304032.5147288479</v>
+      </c>
+      <c r="O2" t="n">
+        <v>304032.5147288477</v>
+      </c>
+      <c r="P2" t="n">
         <v>304032.5147288475</v>
-      </c>
-      <c r="L2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="M2" t="n">
-        <v>304032.5147288476</v>
-      </c>
-      <c r="N2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="O2" t="n">
-        <v>304032.5147288476</v>
-      </c>
-      <c r="P2" t="n">
-        <v>304032.5147288477</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007597</v>
+        <v>86018.53382007599</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285662.2308912559</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="C4" t="n">
-        <v>285662.2308912559</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="D4" t="n">
-        <v>285662.230891256</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="F4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="G4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="H4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="I4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="J4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="K4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="L4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="M4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="N4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="P4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57386.08648539772</v>
+        <v>55555.67867285177</v>
       </c>
       <c r="C6" t="n">
-        <v>138155.5180169455</v>
+        <v>136325.1102043995</v>
       </c>
       <c r="D6" t="n">
-        <v>138155.5180169452</v>
+        <v>136325.1102043994</v>
       </c>
       <c r="E6" t="n">
-        <v>-91086.51032218373</v>
+        <v>-93001.65705523867</v>
       </c>
       <c r="F6" t="n">
-        <v>254525.832456769</v>
+        <v>252610.6857237139</v>
       </c>
       <c r="G6" t="n">
-        <v>254525.832456769</v>
+        <v>252610.685723714</v>
       </c>
       <c r="H6" t="n">
-        <v>254525.8324567691</v>
+        <v>252610.6857237139</v>
       </c>
       <c r="I6" t="n">
-        <v>254525.832456769</v>
+        <v>252610.6857237137</v>
       </c>
       <c r="J6" t="n">
-        <v>191465.8898576628</v>
+        <v>189550.7431246076</v>
       </c>
       <c r="K6" t="n">
-        <v>254525.8324567688</v>
+        <v>252610.6857237139</v>
       </c>
       <c r="L6" t="n">
-        <v>254525.832456769</v>
+        <v>252610.6857237139</v>
       </c>
       <c r="M6" t="n">
-        <v>168507.298636693</v>
+        <v>166592.151903638</v>
       </c>
       <c r="N6" t="n">
-        <v>254525.832456769</v>
+        <v>252610.6857237142</v>
       </c>
       <c r="O6" t="n">
-        <v>254525.832456769</v>
+        <v>252610.6857237139</v>
       </c>
       <c r="P6" t="n">
-        <v>254525.8324567691</v>
+        <v>252610.6857237138</v>
       </c>
     </row>
   </sheetData>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428948</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.5210301705311</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27436,7 +27436,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>196.8920980819622</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.8095704832055</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,16 +27670,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.5644868610308</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,10 +27698,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>159.6613760293525</v>
       </c>
       <c r="W6" t="n">
-        <v>15.06043824303563</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>310.9156916318736</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -27868,10 +27868,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>86.71091790202408</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>35.77818448781514</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K12" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651352</v>
@@ -35504,7 +35504,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
-        <v>228.5170346547477</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651352</v>
@@ -35744,7 +35744,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>75.5287139050381</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651352</v>
@@ -35978,10 +35978,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092569</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.9883207497099</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674905</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651352</v>
@@ -36218,7 +36218,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
@@ -36683,7 +36683,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36692,7 +36692,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105401</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>167.9114421664589</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651352</v>
@@ -37166,7 +37166,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>167.9114421664589</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651352</v>
@@ -37400,10 +37400,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595468</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>60.60559248828882</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651352</v>
@@ -37637,10 +37637,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>75.52871390503788</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
@@ -37868,7 +37868,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584966</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255822</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788805</v>
+        <v>91.0609347978879</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651352</v>
@@ -38111,10 +38111,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
